--- a/biology/Zoologie/Hydralmosaurus/Hydralmosaurus.xlsx
+++ b/biology/Zoologie/Hydralmosaurus/Hydralmosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydralmosaurus (« lézard d'eau salée ») est un genre éteint de plésiosaures de la famille des Elasmosauridae. Ce plésiosaure du Crétacé supérieur (fin du Santonien - début du Campanien) n'est connu que par un seul spécimen découvert dans le Nebraska, aux États-Unis[1].
-Hydralmosaurus avait été décrit en 1943 par Samuel Paul Welles comme un nouveau genre et l'avait nommé Hydralmosaurus   serpentinus[2]. La longueur totale du corps du spécimen est de 9,44 mètres (31,0 pi)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydralmosaurus (« lézard d'eau salée ») est un genre éteint de plésiosaures de la famille des Elasmosauridae. Ce plésiosaure du Crétacé supérieur (fin du Santonien - début du Campanien) n'est connu que par un seul spécimen découvert dans le Nebraska, aux États-Unis.
+Hydralmosaurus avait été décrit en 1943 par Samuel Paul Welles comme un nouveau genre et l'avait nommé Hydralmosaurus   serpentinus. La longueur totale du corps du spécimen est de 9,44 mètres (31,0 pi).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Invalidation du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cadre d'une synthèse sur l'évolution des élasmosauridés en 2016, R. Otero réattribue son nom binominal initial à ce spécimen : Styxosaurus browni[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cadre d'une synthèse sur l'évolution des élasmosauridés en 2016, R. Otero réattribue son nom binominal initial à ce spécimen : Styxosaurus browni.
 </t>
         </is>
       </c>
